--- a/backend/ScrapBackend/scrapping/Excels/Quess_google-overalldata.xlsx
+++ b/backend/ScrapBackend/scrapping/Excels/Quess_google-overalldata.xlsx
@@ -422,7 +422,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B2" t="str">
         <v>Neha Shree</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B3" t="str">
         <v>Srinivasan Srinivasan</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B4" t="str">
         <v>Nisha Nishanthi</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B5" t="str">
         <v>Rohin 189</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B6" t="str">
         <v>Susan Ms</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B7" t="str">
         <v>M R (Davis)</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B8" t="str">
         <v>ravi shankar</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B9" t="str">
         <v>Kannan K</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B10" t="str">
         <v>Jagadeesh</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B11" t="str">
         <v>Priya Priya</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B12" t="str">
         <v>Mohammed Asik</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B13" t="str">
         <v>Mani Kathirvel</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B14" t="str">
         <v>thanga vel</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B15" t="str">
         <v>Prabhavathi Pranesh</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B16" t="str">
         <v>Logesh</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>5/2/2024</v>
+        <v>5/7/2024</v>
       </c>
       <c r="B17" t="str">
         <v>KISHORE Demande</v>
